--- a/dtpu_configurations/only_integer16/50mhz/mxu_14x14/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_14x14/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.025210460647940636</v>
+        <v>0.028014397248625755</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.01166579034179449</v>
+        <v>0.013654418289661407</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007746268063783646</v>
+        <v>0.008439145050942898</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.006082356441766024</v>
+        <v>0.006082390900701284</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.651326601859182E-4</v>
+        <v>2.644160413183272E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0013854476856067777</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12746666371822357</v>
+        <v>0.12751227617263794</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4395220279693604</v>
+        <v>1.4451524019241333</v>
       </c>
     </row>
   </sheetData>
